--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/1_11R22.xlsx
@@ -668,88 +668,88 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1186693222283593</v>
+        <v>0.1834191978297823</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.005350927448324924</v>
       </c>
       <c r="F2">
-        <v>0.1595449640769495</v>
+        <v>0.2026949693377504</v>
       </c>
       <c r="G2">
-        <v>0.005939617498157672</v>
+        <v>0.007418471943878613</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007597781308764032</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0490179863651893</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05310894857070642</v>
+        <v>0.05523954672307359</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01545036483594091</v>
       </c>
       <c r="N2">
-        <v>0.208917011303313</v>
+        <v>0.1095237124678652</v>
       </c>
       <c r="O2">
-        <v>0.04597460016130846</v>
+        <v>0.01028119390919818</v>
       </c>
       <c r="P2">
-        <v>0.007336005600557827</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04336167481457908</v>
+        <v>0.0102941745099636</v>
       </c>
       <c r="R2">
-        <v>0.007705953746174922</v>
+        <v>0.04204234743017692</v>
       </c>
       <c r="S2">
-        <v>0.1795641166099528</v>
+        <v>0.1522979971803691</v>
       </c>
       <c r="T2">
-        <v>0.001703249647175059</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.04712606372379931</v>
+        <v>0.07987485097195816</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03883534528647627</v>
+        <v>0.04590705841515975</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.01485567791872948</v>
       </c>
       <c r="Z2">
-        <v>0.01180807826920115</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.006265197767570857</v>
+        <v>0.01930083964357748</v>
       </c>
       <c r="AB2">
-        <v>0.01274100203781232</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002380862292716817</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.04304128163412213</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.002247609669252612</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.12552570646785</v>
+        <v>0.05096833862243697</v>
       </c>
       <c r="E3">
-        <v>0.01642173196247968</v>
+        <v>0.02951063190583095</v>
       </c>
       <c r="F3">
-        <v>0.1217878471268516</v>
+        <v>0.1041310059783558</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.1173778800401541</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -793,70 +793,70 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0404592259074496</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1332021971089895</v>
+        <v>0.02510393457104114</v>
       </c>
       <c r="M3">
-        <v>0.02222063095063881</v>
+        <v>0.02435810911545129</v>
       </c>
       <c r="N3">
-        <v>0.1160573197135972</v>
+        <v>0.08876495363417168</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.09420573774147643</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01906981225561625</v>
+        <v>0.0317200053935681</v>
       </c>
       <c r="R3">
-        <v>0.05480718173529305</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1770808881746029</v>
+        <v>0.173794311435928</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.1211196122522994</v>
       </c>
       <c r="U3">
-        <v>0.0835358613527996</v>
+        <v>0.02931880199175909</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02408622095906182</v>
       </c>
       <c r="W3">
-        <v>0.03710604179388791</v>
+        <v>0.02652110759692042</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01339939868679957</v>
+        <v>0.0214699338704509</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.001312047236889345</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.005371890420137137</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02857344154348493</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.009631548163594437</v>
+        <v>0.03086547723406758</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001121167056065033</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0883374007051044</v>
+        <v>0.1682534230143568</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1607867789549209</v>
+        <v>0.1636212107730523</v>
       </c>
       <c r="G4">
-        <v>0.02930048459878909</v>
+        <v>0.03291457033366074</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -900,70 +900,70 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01611249051806235</v>
+        <v>0.008560273586818618</v>
       </c>
       <c r="K4">
-        <v>0.009186831334089731</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06475247643726263</v>
+        <v>0.08601080809851282</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01455938274941884</v>
       </c>
       <c r="N4">
-        <v>0.1930990455494609</v>
+        <v>0.1203262863911663</v>
       </c>
       <c r="O4">
-        <v>0.05041779240204328</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003821553837280476</v>
       </c>
       <c r="Q4">
-        <v>0.04027033369504146</v>
+        <v>0.0315148417251576</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01412977613135785</v>
       </c>
       <c r="S4">
-        <v>0.1905388619930614</v>
+        <v>0.1605959267698002</v>
       </c>
       <c r="T4">
-        <v>0.04422844570485494</v>
+        <v>0.02146126557262808</v>
       </c>
       <c r="U4">
-        <v>0.05105489072970067</v>
+        <v>0.03366755298473569</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03722659825632727</v>
+        <v>0.04451262650947193</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.008374296173449449</v>
+        <v>0.01266477815312074</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0036512674273713</v>
+        <v>0.01950879624753683</v>
       </c>
       <c r="AB4">
-        <v>0.002328002501664623</v>
+        <v>0.01954379241523926</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01872236086828458</v>
       </c>
       <c r="AE4">
-        <v>0.01033400301879576</v>
+        <v>0.02548102553524093</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0001297483031594925</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,76 +989,76 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09492978098295007</v>
+        <v>0.2373280968972608</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1469962045922749</v>
+        <v>0.08363491049292214</v>
       </c>
       <c r="G5">
-        <v>0.01515916605229003</v>
+        <v>0.0056671077804505</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00348706963084697</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01962921977451825</v>
+        <v>0.02290616218652673</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1015538833258328</v>
+        <v>0.09834858477148056</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06972276553201076</v>
       </c>
       <c r="N5">
-        <v>0.1837792689304104</v>
+        <v>0.07316606656555479</v>
       </c>
       <c r="O5">
-        <v>0.02593314497203656</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01563577718416552</v>
       </c>
       <c r="Q5">
-        <v>0.05303159366174509</v>
+        <v>0.03500780435659339</v>
       </c>
       <c r="R5">
-        <v>0.0009554333648938773</v>
+        <v>0.0741834997690415</v>
       </c>
       <c r="S5">
-        <v>0.2191018809255556</v>
+        <v>0.1652684798386555</v>
       </c>
       <c r="T5">
-        <v>0.01022654552502888</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0672485733634037</v>
+        <v>0.01805845353477618</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.03217399601745624</v>
+        <v>0.03832051181864474</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.009210624870889444</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.01645896799069387</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003562113022024646</v>
+        <v>0.009918475743724002</v>
       </c>
       <c r="AE5">
-        <v>0.01302150098784271</v>
+        <v>0.03629591478512055</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>7.842075237848231E-05</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07690499236370145</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01207936360346949</v>
       </c>
       <c r="F6">
-        <v>0.1394005087564766</v>
+        <v>0.09500043114173404</v>
       </c>
       <c r="G6">
-        <v>0.03423512403230967</v>
+        <v>0.08371170641408807</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0007610141735656511</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1117,58 +1117,58 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03735012688587919</v>
+        <v>0.002926156515455484</v>
       </c>
       <c r="L6">
-        <v>0.02671349476642149</v>
+        <v>0.04734140066783764</v>
       </c>
       <c r="M6">
-        <v>0.01649047664300325</v>
+        <v>0.01196001416241729</v>
       </c>
       <c r="N6">
-        <v>0.1423898320927626</v>
+        <v>0.1460852126850894</v>
       </c>
       <c r="O6">
-        <v>0.1016273412899613</v>
+        <v>0.06169171164889234</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.004767062012458052</v>
       </c>
       <c r="Q6">
-        <v>0.0422082817396628</v>
+        <v>0.08040498659986081</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1905797689060255</v>
+        <v>0.1824653638789206</v>
       </c>
       <c r="T6">
-        <v>0.07113504943668936</v>
+        <v>0.1193952389698518</v>
       </c>
       <c r="U6">
-        <v>0.04513455513717423</v>
+        <v>0.01862500561655011</v>
       </c>
       <c r="V6">
-        <v>0.004884104148715387</v>
+        <v>0.01832375117323598</v>
       </c>
       <c r="W6">
-        <v>0.03925000559743771</v>
+        <v>0.01688206495544868</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.003150270583629148</v>
       </c>
       <c r="Y6">
-        <v>0.00668994929411269</v>
+        <v>0.009241198734570638</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01497376759156037</v>
+        <v>0.0005740275835137745</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01118388340583841</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01003262131810643</v>
+        <v>0.03134965602516938</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.008173998914591724</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1186693222283593</v>
+        <v>0.1834191978297823</v>
       </c>
       <c r="E2">
-        <v>0.1186693222283593</v>
+        <v>0.1887701252781072</v>
       </c>
       <c r="F2">
-        <v>0.2782142863053088</v>
+        <v>0.3914650946158577</v>
       </c>
       <c r="G2">
-        <v>0.2841539038034665</v>
+        <v>0.3988835665597363</v>
       </c>
       <c r="H2">
-        <v>0.2841539038034665</v>
+        <v>0.3996433446906127</v>
       </c>
       <c r="I2">
-        <v>0.2841539038034665</v>
+        <v>0.3996433446906127</v>
       </c>
       <c r="J2">
-        <v>0.3331718901686558</v>
+        <v>0.3996433446906127</v>
       </c>
       <c r="K2">
-        <v>0.3331718901686558</v>
+        <v>0.3996433446906127</v>
       </c>
       <c r="L2">
-        <v>0.3862808387393622</v>
+        <v>0.4548828914136863</v>
       </c>
       <c r="M2">
-        <v>0.3862808387393622</v>
+        <v>0.4703332562496272</v>
       </c>
       <c r="N2">
-        <v>0.5951978500426751</v>
+        <v>0.5798569687174924</v>
       </c>
       <c r="O2">
-        <v>0.6411724502039836</v>
+        <v>0.5901381626266906</v>
       </c>
       <c r="P2">
-        <v>0.6485084558045414</v>
+        <v>0.5901381626266906</v>
       </c>
       <c r="Q2">
-        <v>0.6918701306191205</v>
+        <v>0.6004323371366542</v>
       </c>
       <c r="R2">
-        <v>0.6995760843652954</v>
+        <v>0.6424746845668311</v>
       </c>
       <c r="S2">
-        <v>0.8791402009752483</v>
+        <v>0.7947726817472003</v>
       </c>
       <c r="T2">
-        <v>0.8808434506224233</v>
+        <v>0.7947726817472003</v>
       </c>
       <c r="U2">
-        <v>0.9279695143462227</v>
+        <v>0.8746475327191584</v>
       </c>
       <c r="V2">
-        <v>0.9279695143462227</v>
+        <v>0.8746475327191584</v>
       </c>
       <c r="W2">
-        <v>0.9668048596326989</v>
+        <v>0.9205545911343181</v>
       </c>
       <c r="X2">
-        <v>0.9668048596326989</v>
+        <v>0.9205545911343181</v>
       </c>
       <c r="Y2">
-        <v>0.9668048596326989</v>
+        <v>0.9354102690530476</v>
       </c>
       <c r="Z2">
-        <v>0.9786129379019001</v>
+        <v>0.9354102690530476</v>
       </c>
       <c r="AA2">
-        <v>0.9848781356694709</v>
+        <v>0.9547111086966251</v>
       </c>
       <c r="AB2">
-        <v>0.9976191377072833</v>
+        <v>0.9547111086966251</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9547111086966251</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9977523903307473</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.12552570646785</v>
+        <v>0.05096833862243697</v>
       </c>
       <c r="E3">
-        <v>0.1419474384303296</v>
+        <v>0.08047897052826791</v>
       </c>
       <c r="F3">
-        <v>0.2637352855571813</v>
+        <v>0.1846099765066238</v>
       </c>
       <c r="G3">
-        <v>0.2637352855571813</v>
+        <v>0.3019878565467778</v>
       </c>
       <c r="H3">
-        <v>0.2637352855571813</v>
+        <v>0.3019878565467778</v>
       </c>
       <c r="I3">
-        <v>0.2637352855571813</v>
+        <v>0.3019878565467778</v>
       </c>
       <c r="J3">
-        <v>0.3041945114646309</v>
+        <v>0.3019878565467778</v>
       </c>
       <c r="K3">
-        <v>0.3041945114646309</v>
+        <v>0.3019878565467778</v>
       </c>
       <c r="L3">
-        <v>0.4373967085736203</v>
+        <v>0.327091791117819</v>
       </c>
       <c r="M3">
-        <v>0.4596173395242591</v>
+        <v>0.3514499002332703</v>
       </c>
       <c r="N3">
-        <v>0.5756746592378563</v>
+        <v>0.440214853867442</v>
       </c>
       <c r="O3">
-        <v>0.5756746592378563</v>
+        <v>0.5344205916089184</v>
       </c>
       <c r="P3">
-        <v>0.5756746592378563</v>
+        <v>0.5344205916089184</v>
       </c>
       <c r="Q3">
-        <v>0.5947444714934725</v>
+        <v>0.5661405970024865</v>
       </c>
       <c r="R3">
-        <v>0.6495516532287656</v>
+        <v>0.5661405970024865</v>
       </c>
       <c r="S3">
-        <v>0.8266325414033685</v>
+        <v>0.7399349084384146</v>
       </c>
       <c r="T3">
-        <v>0.8266325414033685</v>
+        <v>0.8610545206907141</v>
       </c>
       <c r="U3">
-        <v>0.9101684027561681</v>
+        <v>0.8903733226824732</v>
       </c>
       <c r="V3">
-        <v>0.9101684027561681</v>
+        <v>0.9144595436415349</v>
       </c>
       <c r="W3">
-        <v>0.9472744445500559</v>
+        <v>0.9409806512384553</v>
       </c>
       <c r="X3">
-        <v>0.9472744445500559</v>
+        <v>0.9409806512384553</v>
       </c>
       <c r="Y3">
-        <v>0.9606738432368555</v>
+        <v>0.9624505851089062</v>
       </c>
       <c r="Z3">
-        <v>0.9606738432368555</v>
+        <v>0.9624505851089062</v>
       </c>
       <c r="AA3">
-        <v>0.9606738432368555</v>
+        <v>0.9637626323457956</v>
       </c>
       <c r="AB3">
-        <v>0.9606738432368555</v>
+        <v>0.9691345227659327</v>
       </c>
       <c r="AC3">
-        <v>0.9606738432368555</v>
+        <v>0.9691345227659327</v>
       </c>
       <c r="AD3">
-        <v>0.9892472847803404</v>
+        <v>0.9691345227659327</v>
       </c>
       <c r="AE3">
-        <v>0.9988788329439349</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9988788329439349</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9988788329439349</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,94 +1537,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0883374007051044</v>
+        <v>0.1682534230143568</v>
       </c>
       <c r="E4">
-        <v>0.0883374007051044</v>
+        <v>0.1682534230143568</v>
       </c>
       <c r="F4">
-        <v>0.2491241796600253</v>
+        <v>0.331874633787409</v>
       </c>
       <c r="G4">
-        <v>0.2784246642588143</v>
+        <v>0.3647892041210697</v>
       </c>
       <c r="H4">
-        <v>0.2784246642588143</v>
+        <v>0.3647892041210697</v>
       </c>
       <c r="I4">
-        <v>0.2784246642588143</v>
+        <v>0.3647892041210697</v>
       </c>
       <c r="J4">
-        <v>0.2945371547768767</v>
+        <v>0.3733494777078883</v>
       </c>
       <c r="K4">
-        <v>0.3037239861109664</v>
+        <v>0.3733494777078883</v>
       </c>
       <c r="L4">
-        <v>0.368476462548229</v>
+        <v>0.4593602858064011</v>
       </c>
       <c r="M4">
-        <v>0.368476462548229</v>
+        <v>0.47391966855582</v>
       </c>
       <c r="N4">
-        <v>0.56157550809769</v>
+        <v>0.5942459549469863</v>
       </c>
       <c r="O4">
-        <v>0.6119933004997332</v>
+        <v>0.5942459549469863</v>
       </c>
       <c r="P4">
-        <v>0.6119933004997332</v>
+        <v>0.5980675087842667</v>
       </c>
       <c r="Q4">
-        <v>0.6522636341947747</v>
+        <v>0.6295823505094243</v>
       </c>
       <c r="R4">
-        <v>0.6522636341947747</v>
+        <v>0.6437121266407821</v>
       </c>
       <c r="S4">
-        <v>0.8428024961878361</v>
+        <v>0.8043080534105824</v>
       </c>
       <c r="T4">
-        <v>0.887030941892691</v>
+        <v>0.8257693189832105</v>
       </c>
       <c r="U4">
-        <v>0.9380858326223918</v>
+        <v>0.8594368719679462</v>
       </c>
       <c r="V4">
-        <v>0.9380858326223918</v>
+        <v>0.8594368719679462</v>
       </c>
       <c r="W4">
-        <v>0.975312430878719</v>
+        <v>0.9039494984774181</v>
       </c>
       <c r="X4">
-        <v>0.975312430878719</v>
+        <v>0.9039494984774181</v>
       </c>
       <c r="Y4">
-        <v>0.9836867270521684</v>
+        <v>0.9166142766305388</v>
       </c>
       <c r="Z4">
-        <v>0.9836867270521684</v>
+        <v>0.9166142766305388</v>
       </c>
       <c r="AA4">
-        <v>0.9873379944795397</v>
+        <v>0.9361230728780757</v>
       </c>
       <c r="AB4">
-        <v>0.9896659969812044</v>
+        <v>0.955666865293315</v>
       </c>
       <c r="AC4">
-        <v>0.9896659969812044</v>
+        <v>0.955666865293315</v>
       </c>
       <c r="AD4">
-        <v>0.9896659969812044</v>
+        <v>0.9743892261615996</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9998702516968405</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9998702516968405</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9998702516968405</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09492978098295007</v>
+        <v>0.2373280968972608</v>
       </c>
       <c r="E5">
-        <v>0.09492978098295007</v>
+        <v>0.2373280968972608</v>
       </c>
       <c r="F5">
-        <v>0.2419259855752249</v>
+        <v>0.3209630073901829</v>
       </c>
       <c r="G5">
-        <v>0.2570851516275149</v>
+        <v>0.3266301151706334</v>
       </c>
       <c r="H5">
-        <v>0.2570851516275149</v>
+        <v>0.3266301151706334</v>
       </c>
       <c r="I5">
-        <v>0.2605722212583619</v>
+        <v>0.3266301151706334</v>
       </c>
       <c r="J5">
-        <v>0.2802014410328802</v>
+        <v>0.3495362773571601</v>
       </c>
       <c r="K5">
-        <v>0.2802014410328802</v>
+        <v>0.3495362773571601</v>
       </c>
       <c r="L5">
-        <v>0.381755324358713</v>
+        <v>0.4478848621286407</v>
       </c>
       <c r="M5">
-        <v>0.381755324358713</v>
+        <v>0.5176076276606515</v>
       </c>
       <c r="N5">
-        <v>0.5655345932891234</v>
+        <v>0.5907736942262063</v>
       </c>
       <c r="O5">
-        <v>0.5914677382611599</v>
+        <v>0.5907736942262063</v>
       </c>
       <c r="P5">
-        <v>0.5914677382611599</v>
+        <v>0.6064094714103718</v>
       </c>
       <c r="Q5">
-        <v>0.6444993319229051</v>
+        <v>0.6414172757669652</v>
       </c>
       <c r="R5">
-        <v>0.645454765287799</v>
+        <v>0.7156007755360067</v>
       </c>
       <c r="S5">
-        <v>0.8645566462133546</v>
+        <v>0.8808692553746621</v>
       </c>
       <c r="T5">
-        <v>0.8747831917383835</v>
+        <v>0.8808692553746621</v>
       </c>
       <c r="U5">
-        <v>0.9420317651017872</v>
+        <v>0.8989277089094383</v>
       </c>
       <c r="V5">
-        <v>0.9420317651017872</v>
+        <v>0.8989277089094383</v>
       </c>
       <c r="W5">
-        <v>0.9742057611192434</v>
+        <v>0.937248220728083</v>
       </c>
       <c r="X5">
-        <v>0.9742057611192434</v>
+        <v>0.937248220728083</v>
       </c>
       <c r="Y5">
-        <v>0.9834163859901328</v>
+        <v>0.937248220728083</v>
       </c>
       <c r="Z5">
-        <v>0.9834163859901328</v>
+        <v>0.937248220728083</v>
       </c>
       <c r="AA5">
-        <v>0.9834163859901328</v>
+        <v>0.9537071887187769</v>
       </c>
       <c r="AB5">
-        <v>0.9834163859901328</v>
+        <v>0.9537071887187769</v>
       </c>
       <c r="AC5">
-        <v>0.9834163859901328</v>
+        <v>0.9537071887187769</v>
       </c>
       <c r="AD5">
-        <v>0.9869784990121575</v>
+        <v>0.9636256644625009</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999215792476214</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999215792476214</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999215792476214</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999215792476214</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07690499236370145</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="E6">
-        <v>0.07690499236370145</v>
+        <v>0.04598584413728073</v>
       </c>
       <c r="F6">
-        <v>0.216305501120178</v>
+        <v>0.1409862752790147</v>
       </c>
       <c r="G6">
-        <v>0.2505406251524877</v>
+        <v>0.2246979816931028</v>
       </c>
       <c r="H6">
-        <v>0.2505406251524877</v>
+        <v>0.2254589958666685</v>
       </c>
       <c r="I6">
-        <v>0.2505406251524877</v>
+        <v>0.2254589958666685</v>
       </c>
       <c r="J6">
-        <v>0.2505406251524877</v>
+        <v>0.2254589958666685</v>
       </c>
       <c r="K6">
-        <v>0.2878907520383669</v>
+        <v>0.228385152382124</v>
       </c>
       <c r="L6">
-        <v>0.3146042468047884</v>
+        <v>0.2757265530499616</v>
       </c>
       <c r="M6">
-        <v>0.3310947234477916</v>
+        <v>0.2876865672123788</v>
       </c>
       <c r="N6">
-        <v>0.4734845555405542</v>
+        <v>0.4337717798974683</v>
       </c>
       <c r="O6">
-        <v>0.5751118968305156</v>
+        <v>0.4954634915463606</v>
       </c>
       <c r="P6">
-        <v>0.5751118968305156</v>
+        <v>0.5002305535588186</v>
       </c>
       <c r="Q6">
-        <v>0.6173201785701784</v>
+        <v>0.5806355401586795</v>
       </c>
       <c r="R6">
-        <v>0.6173201785701784</v>
+        <v>0.5806355401586795</v>
       </c>
       <c r="S6">
-        <v>0.8078999474762039</v>
+        <v>0.7631009040376</v>
       </c>
       <c r="T6">
-        <v>0.8790349969128932</v>
+        <v>0.8824961430074518</v>
       </c>
       <c r="U6">
-        <v>0.9241695520500675</v>
+        <v>0.9011211486240019</v>
       </c>
       <c r="V6">
-        <v>0.9290536561987829</v>
+        <v>0.9194448997972379</v>
       </c>
       <c r="W6">
-        <v>0.9683036617962206</v>
+        <v>0.9363269647526865</v>
       </c>
       <c r="X6">
-        <v>0.9683036617962206</v>
+        <v>0.9394772353363157</v>
       </c>
       <c r="Y6">
-        <v>0.9749936110903333</v>
+        <v>0.9487184340708863</v>
       </c>
       <c r="Z6">
-        <v>0.9749936110903333</v>
+        <v>0.9487184340708863</v>
       </c>
       <c r="AA6">
-        <v>0.9899673786818937</v>
+        <v>0.9492924616544001</v>
       </c>
       <c r="AB6">
-        <v>0.9899673786818937</v>
+        <v>0.9604763450602385</v>
       </c>
       <c r="AC6">
-        <v>0.9899673786818937</v>
+        <v>0.9604763450602385</v>
       </c>
       <c r="AD6">
-        <v>0.9899673786818937</v>
+        <v>0.9604763450602385</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9918260010854079</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5951978500426751</v>
+        <v>0.5798569687174924</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5344205916089184</v>
+      </c>
+      <c r="G3">
         <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5756746592378563</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.56157550809769</v>
+        <v>0.5942459549469863</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5655345932891234</v>
+        <v>0.5176076276606515</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2073,19 +2073,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="F6">
-        <v>0.5751118968305156</v>
+        <v>0.5002305535588186</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8791402009752483</v>
+        <v>0.7947726817472003</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8266325414033685</v>
+        <v>0.7399349084384146</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8428024961878361</v>
+        <v>0.8043080534105824</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8645566462133546</v>
+        <v>0.7156007755360067</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2332,19 +2332,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="F6">
-        <v>0.8078999474762039</v>
+        <v>0.7631009040376</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8791402009752483</v>
+        <v>0.8746475327191584</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8610545206907141</v>
+      </c>
+      <c r="G3">
         <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8266325414033685</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8428024961878361</v>
+        <v>0.8043080534105824</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8645566462133546</v>
+        <v>0.8808692553746621</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2591,19 +2591,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="F6">
-        <v>0.8078999474762039</v>
+        <v>0.8824961430074518</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9279695143462227</v>
+        <v>0.9205545911343181</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9144595436415349</v>
+      </c>
+      <c r="G3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9101684027561681</v>
-      </c>
-      <c r="G3">
-        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9380858326223918</v>
+        <v>0.9039494984774181</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9420317651017872</v>
+        <v>0.937248220728083</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2850,19 +2850,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03390648053381124</v>
       </c>
       <c r="F6">
-        <v>0.9241695520500675</v>
+        <v>0.9011211486240019</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>1</v>
